--- a/Files/GC.xlsx
+++ b/Files/GC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muham\Desktop\Before Upload Git\220419\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muham\Desktop\Before Upload Git\30519\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>No.</t>
   </si>
@@ -140,15 +140,9 @@
     <t>Fitur Cancel</t>
   </si>
   <si>
-    <t>Fitur Statistik Mahasiswa Alumni</t>
-  </si>
-  <si>
     <t>PA</t>
   </si>
   <si>
-    <t>Fitur Download Informasi Alumni</t>
-  </si>
-  <si>
     <t>Fitur Laman Berita</t>
   </si>
   <si>
@@ -257,7 +251,22 @@
     <t>DR,MR,NG</t>
   </si>
   <si>
-    <t>Pengaturan Berita</t>
+    <t>Fitur Statistik Alumni</t>
+  </si>
+  <si>
+    <t>Fitur Download</t>
+  </si>
+  <si>
+    <t>Perbaikan Fitur Profil Alumni</t>
+  </si>
+  <si>
+    <t>Perbaikan Tabel Alumni dan Tabel Admin</t>
+  </si>
+  <si>
+    <t>Perbaikan Fitur Kuesioner</t>
+  </si>
+  <si>
+    <t>Mei</t>
   </si>
 </sst>
 </file>
@@ -394,13 +403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -558,21 +567,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -586,18 +580,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -610,16 +592,30 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -631,12 +627,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -662,29 +652,60 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1006,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:BP53"/>
+  <dimension ref="A6:CL55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1023,389 +1044,435 @@
     <col min="7" max="66" width="5.375" customWidth="1"/>
     <col min="67" max="67" width="6" customWidth="1"/>
     <col min="68" max="68" width="5.125" customWidth="1"/>
+    <col min="69" max="69" width="4.125" customWidth="1"/>
+    <col min="70" max="70" width="3.75" customWidth="1"/>
+    <col min="71" max="72" width="4" customWidth="1"/>
+    <col min="73" max="90" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="51" t="s">
+      <c r="E6" s="58"/>
+      <c r="F6" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="42" t="s">
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="43"/>
-      <c r="AF6" s="43"/>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="43"/>
-      <c r="AI6" s="43"/>
-      <c r="AJ6" s="43"/>
-      <c r="AK6" s="43"/>
-      <c r="AL6" s="43"/>
-      <c r="AM6" s="43"/>
-      <c r="AN6" s="43"/>
-      <c r="AO6" s="43"/>
-      <c r="AP6" s="43"/>
-      <c r="AQ6" s="43"/>
-      <c r="AR6" s="43"/>
-      <c r="AS6" s="43"/>
-      <c r="AT6" s="44"/>
-      <c r="AU6" s="45" t="s">
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="48"/>
+      <c r="AN6" s="48"/>
+      <c r="AO6" s="48"/>
+      <c r="AP6" s="48"/>
+      <c r="AQ6" s="48"/>
+      <c r="AR6" s="48"/>
+      <c r="AS6" s="48"/>
+      <c r="AT6" s="49"/>
+      <c r="AU6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="AV6" s="45"/>
-      <c r="AW6" s="45"/>
-      <c r="AX6" s="45"/>
-      <c r="AY6" s="45"/>
-      <c r="AZ6" s="45"/>
-      <c r="BA6" s="45"/>
-      <c r="BB6" s="45"/>
-      <c r="BC6" s="45"/>
-      <c r="BD6" s="45"/>
-      <c r="BE6" s="45"/>
-      <c r="BF6" s="45"/>
-      <c r="BG6" s="45"/>
-      <c r="BH6" s="45"/>
-      <c r="BI6" s="45"/>
-      <c r="BJ6" s="45"/>
-      <c r="BK6" s="45"/>
-      <c r="BL6" s="45"/>
-      <c r="BM6" s="45"/>
-      <c r="BN6" s="45"/>
-      <c r="BO6" s="45"/>
-      <c r="BP6" s="45"/>
-    </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="51" t="s">
+      <c r="AV6" s="50"/>
+      <c r="AW6" s="50"/>
+      <c r="AX6" s="50"/>
+      <c r="AY6" s="50"/>
+      <c r="AZ6" s="50"/>
+      <c r="BA6" s="50"/>
+      <c r="BB6" s="50"/>
+      <c r="BC6" s="50"/>
+      <c r="BD6" s="50"/>
+      <c r="BE6" s="50"/>
+      <c r="BF6" s="50"/>
+      <c r="BG6" s="50"/>
+      <c r="BH6" s="50"/>
+      <c r="BI6" s="50"/>
+      <c r="BJ6" s="50"/>
+      <c r="BK6" s="50"/>
+      <c r="BL6" s="50"/>
+      <c r="BM6" s="50"/>
+      <c r="BN6" s="50"/>
+      <c r="BO6" s="50"/>
+      <c r="BP6" s="50"/>
+      <c r="BQ6" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR6" s="50"/>
+      <c r="BS6" s="50"/>
+      <c r="BT6" s="50"/>
+      <c r="BU6" s="78"/>
+      <c r="BV6" s="78"/>
+      <c r="BW6" s="78"/>
+      <c r="BX6" s="78"/>
+      <c r="BY6" s="78"/>
+      <c r="BZ6" s="78"/>
+      <c r="CA6" s="78"/>
+      <c r="CB6" s="78"/>
+      <c r="CC6" s="78"/>
+      <c r="CD6" s="78"/>
+      <c r="CE6" s="78"/>
+      <c r="CF6" s="78"/>
+      <c r="CG6" s="78"/>
+      <c r="CH6" s="78"/>
+      <c r="CI6" s="78"/>
+      <c r="CJ6" s="78"/>
+      <c r="CK6" s="78"/>
+      <c r="CL6" s="78"/>
+    </row>
+    <row r="7" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="42" t="s">
+      <c r="F7" s="55"/>
+      <c r="G7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="42" t="s">
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="42" t="s">
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="42" t="s">
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="42" t="s">
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="42" t="s">
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="44"/>
-      <c r="AK7" s="42" t="s">
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="61"/>
+      <c r="AK7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="43"/>
-      <c r="AO7" s="44"/>
-      <c r="AP7" s="42" t="s">
+      <c r="AL7" s="60"/>
+      <c r="AM7" s="60"/>
+      <c r="AN7" s="60"/>
+      <c r="AO7" s="61"/>
+      <c r="AP7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="AQ7" s="43"/>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="43"/>
-      <c r="AT7" s="44"/>
-      <c r="AU7" s="42" t="s">
+      <c r="AQ7" s="60"/>
+      <c r="AR7" s="60"/>
+      <c r="AS7" s="60"/>
+      <c r="AT7" s="61"/>
+      <c r="AU7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AV7" s="43"/>
-      <c r="AW7" s="43"/>
-      <c r="AX7" s="43"/>
-      <c r="AY7" s="44"/>
-      <c r="AZ7" s="42" t="s">
+      <c r="AV7" s="60"/>
+      <c r="AW7" s="60"/>
+      <c r="AX7" s="60"/>
+      <c r="AY7" s="61"/>
+      <c r="AZ7" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="BA7" s="43"/>
-      <c r="BB7" s="43"/>
-      <c r="BC7" s="43"/>
-      <c r="BD7" s="44"/>
-      <c r="BE7" s="42" t="s">
+      <c r="BA7" s="60"/>
+      <c r="BB7" s="60"/>
+      <c r="BC7" s="60"/>
+      <c r="BD7" s="61"/>
+      <c r="BE7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="BF7" s="43"/>
-      <c r="BG7" s="43"/>
-      <c r="BH7" s="43"/>
-      <c r="BI7" s="44"/>
-      <c r="BJ7" s="42" t="s">
+      <c r="BF7" s="60"/>
+      <c r="BG7" s="60"/>
+      <c r="BH7" s="60"/>
+      <c r="BI7" s="61"/>
+      <c r="BJ7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="BK7" s="43"/>
-      <c r="BL7" s="43"/>
-      <c r="BM7" s="43"/>
-      <c r="BN7" s="43"/>
-      <c r="BO7" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="BP7" s="47"/>
-    </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="12">
+      <c r="BK7" s="60"/>
+      <c r="BL7" s="60"/>
+      <c r="BM7" s="60"/>
+      <c r="BN7" s="60"/>
+      <c r="BO7" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP7" s="63"/>
+      <c r="BQ7" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="BR7" s="74"/>
+      <c r="BS7" s="74"/>
+      <c r="BT7" s="74"/>
+    </row>
+    <row r="8" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="A8" s="53"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="64">
         <v>4</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="64">
         <v>5</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="64">
         <v>6</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="64">
         <v>7</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="64">
         <v>8</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="65">
         <v>11</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="65">
         <v>12</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="65">
         <v>13</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="65">
         <v>14</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="65">
         <v>15</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="66">
         <v>18</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="66">
         <v>19</v>
       </c>
-      <c r="S8" s="14">
+      <c r="S8" s="66">
         <v>20</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="66">
         <v>21</v>
       </c>
-      <c r="U8" s="14">
+      <c r="U8" s="66">
         <v>22</v>
       </c>
-      <c r="V8" s="15">
+      <c r="V8" s="67">
         <v>25</v>
       </c>
-      <c r="W8" s="15">
+      <c r="W8" s="67">
         <v>26</v>
       </c>
-      <c r="X8" s="15">
+      <c r="X8" s="67">
         <v>27</v>
       </c>
-      <c r="Y8" s="15">
+      <c r="Y8" s="67">
         <v>28</v>
       </c>
-      <c r="Z8" s="15">
+      <c r="Z8" s="67">
         <v>1</v>
       </c>
-      <c r="AA8" s="16">
+      <c r="AA8" s="68">
         <v>4</v>
       </c>
-      <c r="AB8" s="16">
+      <c r="AB8" s="68">
         <v>5</v>
       </c>
-      <c r="AC8" s="16">
+      <c r="AC8" s="68">
         <v>6</v>
       </c>
-      <c r="AD8" s="16">
+      <c r="AD8" s="68">
         <v>7</v>
       </c>
-      <c r="AE8" s="26">
+      <c r="AE8" s="69">
         <v>8</v>
       </c>
-      <c r="AF8" s="27">
+      <c r="AF8" s="69">
         <v>11</v>
       </c>
-      <c r="AG8" s="27">
+      <c r="AG8" s="69">
         <v>12</v>
       </c>
-      <c r="AH8" s="27">
+      <c r="AH8" s="69">
         <v>13</v>
       </c>
-      <c r="AI8" s="27">
+      <c r="AI8" s="69">
         <v>14</v>
       </c>
-      <c r="AJ8" s="27">
+      <c r="AJ8" s="69">
         <v>15</v>
       </c>
-      <c r="AK8" s="27">
+      <c r="AK8" s="69">
         <v>18</v>
       </c>
-      <c r="AL8" s="27">
+      <c r="AL8" s="69">
         <v>19</v>
       </c>
-      <c r="AM8" s="27">
+      <c r="AM8" s="69">
         <v>20</v>
       </c>
-      <c r="AN8" s="27">
+      <c r="AN8" s="69">
         <v>21</v>
       </c>
-      <c r="AO8" s="27">
+      <c r="AO8" s="69">
         <v>22</v>
       </c>
-      <c r="AP8" s="28">
+      <c r="AP8" s="70">
         <v>25</v>
       </c>
-      <c r="AQ8" s="28">
+      <c r="AQ8" s="70">
         <v>26</v>
       </c>
-      <c r="AR8" s="28">
+      <c r="AR8" s="70">
         <v>27</v>
       </c>
-      <c r="AS8" s="28">
+      <c r="AS8" s="70">
         <v>28</v>
       </c>
-      <c r="AT8" s="28">
+      <c r="AT8" s="70">
         <v>29</v>
       </c>
-      <c r="AU8" s="28">
+      <c r="AU8" s="70">
         <v>1</v>
       </c>
-      <c r="AV8" s="28">
+      <c r="AV8" s="70">
         <v>2</v>
       </c>
-      <c r="AW8" s="28">
+      <c r="AW8" s="70">
         <v>3</v>
       </c>
-      <c r="AX8" s="28">
+      <c r="AX8" s="70">
         <v>4</v>
       </c>
-      <c r="AY8" s="28">
+      <c r="AY8" s="70">
         <v>5</v>
       </c>
-      <c r="AZ8" s="29">
+      <c r="AZ8" s="71">
         <v>8</v>
       </c>
-      <c r="BA8" s="29">
+      <c r="BA8" s="71">
         <v>9</v>
       </c>
-      <c r="BB8" s="29">
+      <c r="BB8" s="71">
         <v>10</v>
       </c>
-      <c r="BC8" s="29">
+      <c r="BC8" s="71">
         <v>11</v>
       </c>
-      <c r="BD8" s="29">
+      <c r="BD8" s="71">
         <v>12</v>
       </c>
-      <c r="BE8" s="29">
+      <c r="BE8" s="71">
         <v>15</v>
       </c>
-      <c r="BF8" s="29">
+      <c r="BF8" s="71">
         <v>16</v>
       </c>
-      <c r="BG8" s="29">
+      <c r="BG8" s="71">
         <v>17</v>
       </c>
-      <c r="BH8" s="29">
+      <c r="BH8" s="71">
         <v>18</v>
       </c>
-      <c r="BI8" s="29">
+      <c r="BI8" s="71">
         <v>19</v>
       </c>
-      <c r="BJ8" s="38">
+      <c r="BJ8" s="65">
         <v>22</v>
       </c>
-      <c r="BK8" s="38">
+      <c r="BK8" s="65">
         <v>23</v>
       </c>
-      <c r="BL8" s="38">
+      <c r="BL8" s="65">
         <v>24</v>
       </c>
-      <c r="BM8" s="38">
+      <c r="BM8" s="65">
         <v>25</v>
       </c>
-      <c r="BN8" s="39">
+      <c r="BN8" s="72">
         <v>26</v>
       </c>
-      <c r="BO8" s="40">
+      <c r="BO8" s="73">
         <v>29</v>
       </c>
-      <c r="BP8" s="40">
+      <c r="BP8" s="73">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ8" s="75">
+        <v>1</v>
+      </c>
+      <c r="BR8" s="75">
+        <v>2</v>
+      </c>
+      <c r="BS8" s="75">
+        <v>3</v>
+      </c>
+      <c r="BT8" s="75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -1415,7 +1482,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="24">
+      <c r="F9" s="19">
         <f>SUM(F10:F13)</f>
         <v>68</v>
       </c>
@@ -1478,11 +1545,15 @@
       <c r="BK9" s="9"/>
       <c r="BL9" s="9"/>
       <c r="BM9" s="9"/>
-      <c r="BN9" s="36"/>
+      <c r="BN9" s="27"/>
       <c r="BO9" s="1"/>
       <c r="BP9" s="1"/>
-    </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ9" s="1"/>
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="1"/>
+      <c r="BT9" s="1"/>
+    </row>
+    <row r="10" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -1490,10 +1561,10 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="12">
         <v>43528</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="12">
         <v>43532</v>
       </c>
       <c r="F10" s="2">
@@ -1522,7 +1593,7 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
-      <c r="AD10" s="33"/>
+      <c r="AD10" s="24"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="1"/>
@@ -1558,11 +1629,15 @@
       <c r="BK10" s="5"/>
       <c r="BL10" s="5"/>
       <c r="BM10" s="5"/>
-      <c r="BN10" s="32"/>
+      <c r="BN10" s="23"/>
       <c r="BO10" s="1"/>
       <c r="BP10" s="1"/>
-    </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ10" s="1"/>
+      <c r="BR10" s="1"/>
+      <c r="BS10" s="1"/>
+      <c r="BT10" s="1"/>
+    </row>
+    <row r="11" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>18</v>
@@ -1570,10 +1645,10 @@
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="12">
         <v>43532</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="12">
         <v>43539</v>
       </c>
       <c r="F11" s="2">
@@ -1638,11 +1713,15 @@
       <c r="BK11" s="5"/>
       <c r="BL11" s="5"/>
       <c r="BM11" s="5"/>
-      <c r="BN11" s="32"/>
+      <c r="BN11" s="23"/>
       <c r="BO11" s="1"/>
       <c r="BP11" s="1"/>
-    </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ11" s="1"/>
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="1"/>
+      <c r="BT11" s="1"/>
+    </row>
+    <row r="12" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>21</v>
@@ -1650,10 +1729,10 @@
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="12">
         <v>43538</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="12">
         <v>43539</v>
       </c>
       <c r="F12" s="2">
@@ -1688,7 +1767,7 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="3"/>
-      <c r="AJ12" s="18"/>
+      <c r="AJ12" s="13"/>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
@@ -1718,22 +1797,26 @@
       <c r="BK12" s="5"/>
       <c r="BL12" s="5"/>
       <c r="BM12" s="5"/>
-      <c r="BN12" s="32"/>
+      <c r="BN12" s="23"/>
       <c r="BO12" s="1"/>
       <c r="BP12" s="1"/>
-    </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ12" s="1"/>
+      <c r="BR12" s="1"/>
+      <c r="BS12" s="1"/>
+      <c r="BT12" s="1"/>
+    </row>
+    <row r="13" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="12">
         <v>43539</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="12">
         <v>43540</v>
       </c>
       <c r="F13" s="2">
@@ -1798,11 +1881,15 @@
       <c r="BK13" s="5"/>
       <c r="BL13" s="5"/>
       <c r="BM13" s="5"/>
-      <c r="BN13" s="32"/>
+      <c r="BN13" s="23"/>
       <c r="BO13" s="1"/>
       <c r="BP13" s="1"/>
-    </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ13" s="1"/>
+      <c r="BR13" s="1"/>
+      <c r="BS13" s="1"/>
+      <c r="BT13" s="1"/>
+    </row>
+    <row r="14" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -1812,7 +1899,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="24">
+      <c r="F14" s="19">
         <v>80</v>
       </c>
       <c r="G14" s="9"/>
@@ -1848,14 +1935,14 @@
       <c r="AK14" s="9"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
-      <c r="AN14" s="21"/>
+      <c r="AN14" s="16"/>
       <c r="AO14" s="9"/>
-      <c r="AP14" s="21"/>
-      <c r="AQ14" s="21"/>
-      <c r="AR14" s="21"/>
-      <c r="AS14" s="21"/>
-      <c r="AT14" s="21"/>
-      <c r="AU14" s="21"/>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="16"/>
+      <c r="AU14" s="16"/>
       <c r="AV14" s="9"/>
       <c r="AW14" s="9"/>
       <c r="AX14" s="9"/>
@@ -1874,11 +1961,15 @@
       <c r="BK14" s="9"/>
       <c r="BL14" s="9"/>
       <c r="BM14" s="9"/>
-      <c r="BN14" s="36"/>
+      <c r="BN14" s="27"/>
       <c r="BO14" s="1"/>
       <c r="BP14" s="1"/>
-    </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ14" s="1"/>
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="1"/>
+      <c r="BT14" s="1"/>
+    </row>
+    <row r="15" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>25</v>
@@ -1886,10 +1977,10 @@
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="12">
         <v>43539</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="12">
         <v>43542</v>
       </c>
       <c r="F15" s="6">
@@ -1954,11 +2045,15 @@
       <c r="BK15" s="5"/>
       <c r="BL15" s="5"/>
       <c r="BM15" s="5"/>
-      <c r="BN15" s="32"/>
+      <c r="BN15" s="23"/>
       <c r="BO15" s="1"/>
       <c r="BP15" s="1"/>
-    </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ15" s="1"/>
+      <c r="BR15" s="1"/>
+      <c r="BS15" s="1"/>
+      <c r="BT15" s="1"/>
+    </row>
+    <row r="16" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="5" t="s">
         <v>26</v>
@@ -1966,10 +2061,10 @@
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="12">
         <v>43542</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="12">
         <v>43543</v>
       </c>
       <c r="F16" s="6">
@@ -2034,22 +2129,26 @@
       <c r="BK16" s="5"/>
       <c r="BL16" s="5"/>
       <c r="BM16" s="5"/>
-      <c r="BN16" s="32"/>
+      <c r="BN16" s="23"/>
       <c r="BO16" s="1"/>
       <c r="BP16" s="1"/>
-    </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ16" s="1"/>
+      <c r="BR16" s="1"/>
+      <c r="BS16" s="1"/>
+      <c r="BT16" s="1"/>
+    </row>
+    <row r="17" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="17">
+        <v>66</v>
+      </c>
+      <c r="D17" s="12">
         <v>43544</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="12">
         <v>43561</v>
       </c>
       <c r="F17" s="7">
@@ -2113,25 +2212,29 @@
       <c r="BK17" s="5"/>
       <c r="BL17" s="5"/>
       <c r="BM17" s="5"/>
-      <c r="BN17" s="32"/>
+      <c r="BN17" s="23"/>
       <c r="BO17" s="1"/>
       <c r="BP17" s="1"/>
-    </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="BQ17" s="1"/>
+      <c r="BR17" s="1"/>
+      <c r="BS17" s="1"/>
+      <c r="BT17" s="1"/>
+    </row>
+    <row r="18" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
       <c r="B18" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="35">
+        <v>66</v>
+      </c>
+      <c r="D18" s="26">
         <v>43546</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="26">
         <v>43561</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="14">
         <v>16</v>
       </c>
       <c r="G18" s="4"/>
@@ -2193,22 +2296,26 @@
       <c r="BK18" s="5"/>
       <c r="BL18" s="5"/>
       <c r="BM18" s="5"/>
-      <c r="BN18" s="32"/>
+      <c r="BN18" s="23"/>
       <c r="BO18" s="1"/>
       <c r="BP18" s="1"/>
-    </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ18" s="1"/>
+      <c r="BR18" s="1"/>
+      <c r="BS18" s="1"/>
+      <c r="BT18" s="1"/>
+    </row>
+    <row r="19" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="17">
+        <v>64</v>
+      </c>
+      <c r="D19" s="12">
         <v>43553</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="12">
         <v>3</v>
       </c>
       <c r="F19" s="6">
@@ -2273,22 +2380,26 @@
       <c r="BK19" s="5"/>
       <c r="BL19" s="5"/>
       <c r="BM19" s="5"/>
-      <c r="BN19" s="32"/>
+      <c r="BN19" s="23"/>
       <c r="BO19" s="1"/>
       <c r="BP19" s="1"/>
-    </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ19" s="1"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="1"/>
+      <c r="BT19" s="1"/>
+    </row>
+    <row r="20" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="17">
+        <v>65</v>
+      </c>
+      <c r="D20" s="12">
         <v>43553</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="12">
         <v>43558</v>
       </c>
       <c r="F20" s="6">
@@ -2353,22 +2464,26 @@
       <c r="BK20" s="5"/>
       <c r="BL20" s="5"/>
       <c r="BM20" s="5"/>
-      <c r="BN20" s="32"/>
+      <c r="BN20" s="23"/>
       <c r="BO20" s="1"/>
       <c r="BP20" s="1"/>
-    </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="BQ20" s="1"/>
+      <c r="BR20" s="1"/>
+      <c r="BS20" s="1"/>
+      <c r="BT20" s="1"/>
+    </row>
+    <row r="21" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
       <c r="B21" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="17">
+        <v>38</v>
+      </c>
+      <c r="D21" s="12">
         <v>43540</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="12">
         <v>43559</v>
       </c>
       <c r="F21" s="6">
@@ -2433,25 +2548,29 @@
       <c r="BK21" s="1"/>
       <c r="BL21" s="1"/>
       <c r="BM21" s="1"/>
-      <c r="BN21" s="37"/>
+      <c r="BN21" s="28"/>
       <c r="BO21" s="1"/>
       <c r="BP21" s="1"/>
-    </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ21" s="1"/>
+      <c r="BR21" s="1"/>
+      <c r="BS21" s="1"/>
+      <c r="BT21" s="1"/>
+    </row>
+    <row r="22" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="17">
+        <v>62</v>
+      </c>
+      <c r="D22" s="12">
         <v>43541</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="12">
         <v>43558</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="21">
         <v>12</v>
       </c>
       <c r="G22" s="1"/>
@@ -2516,22 +2635,26 @@
       <c r="BN22" s="1"/>
       <c r="BO22" s="1"/>
       <c r="BP22" s="1"/>
-    </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ22" s="1"/>
+      <c r="BR22" s="1"/>
+      <c r="BS22" s="1"/>
+      <c r="BT22" s="1"/>
+    </row>
+    <row r="23" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="17">
+        <v>67</v>
+      </c>
+      <c r="D23" s="12">
         <v>43561</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="12">
         <v>43563</v>
       </c>
-      <c r="F23" s="30"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2594,18 +2717,22 @@
       <c r="BN23" s="1"/>
       <c r="BO23" s="1"/>
       <c r="BP23" s="1"/>
-    </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+      <c r="BQ23" s="1"/>
+      <c r="BR23" s="1"/>
+      <c r="BS23" s="1"/>
+      <c r="BT23" s="1"/>
+    </row>
+    <row r="24" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
         <v>3</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="24">
+      <c r="F24" s="19">
         <v>80</v>
       </c>
       <c r="G24" s="9"/>
@@ -2670,88 +2797,96 @@
       <c r="BN24" s="9"/>
       <c r="BO24" s="1"/>
       <c r="BP24" s="1"/>
-    </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23" t="s">
+      <c r="BQ24" s="1"/>
+      <c r="BR24" s="1"/>
+      <c r="BS24" s="1"/>
+      <c r="BT24" s="1"/>
+    </row>
+    <row r="25" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="41">
+      <c r="C25" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="29">
         <v>43566</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="29">
         <v>43569</v>
       </c>
-      <c r="F25" s="57">
+      <c r="F25" s="31">
         <v>8</v>
       </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="23"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="23"/>
-      <c r="AJ25" s="23"/>
-      <c r="AK25" s="23"/>
-      <c r="AL25" s="23"/>
-      <c r="AM25" s="23"/>
-      <c r="AN25" s="23"/>
-      <c r="AO25" s="23"/>
-      <c r="AP25" s="23"/>
-      <c r="AQ25" s="23"/>
-      <c r="AR25" s="23"/>
-      <c r="AS25" s="23"/>
-      <c r="AT25" s="63"/>
-      <c r="AU25" s="63"/>
-      <c r="AV25" s="63"/>
-      <c r="AW25" s="63"/>
-      <c r="AX25" s="63"/>
-      <c r="AY25" s="63"/>
-      <c r="AZ25" s="68"/>
-      <c r="BA25" s="68"/>
-      <c r="BB25" s="68"/>
-      <c r="BC25" s="25"/>
-      <c r="BD25" s="25"/>
-      <c r="BE25" s="63"/>
-      <c r="BF25" s="63"/>
-      <c r="BG25" s="63"/>
-      <c r="BH25" s="63"/>
-      <c r="BI25" s="63"/>
-      <c r="BJ25" s="63"/>
-      <c r="BK25" s="63"/>
-      <c r="BL25" s="63"/>
-      <c r="BM25" s="63"/>
-      <c r="BN25" s="64"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
+      <c r="AJ25" s="18"/>
+      <c r="AK25" s="18"/>
+      <c r="AL25" s="18"/>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="18"/>
+      <c r="AO25" s="18"/>
+      <c r="AP25" s="18"/>
+      <c r="AQ25" s="18"/>
+      <c r="AR25" s="18"/>
+      <c r="AS25" s="18"/>
+      <c r="AT25" s="37"/>
+      <c r="AU25" s="37"/>
+      <c r="AV25" s="37"/>
+      <c r="AW25" s="37"/>
+      <c r="AX25" s="37"/>
+      <c r="AY25" s="37"/>
+      <c r="AZ25" s="42"/>
+      <c r="BA25" s="42"/>
+      <c r="BB25" s="42"/>
+      <c r="BC25" s="20"/>
+      <c r="BD25" s="20"/>
+      <c r="BE25" s="37"/>
+      <c r="BF25" s="37"/>
+      <c r="BG25" s="37"/>
+      <c r="BH25" s="37"/>
+      <c r="BI25" s="37"/>
+      <c r="BJ25" s="37"/>
+      <c r="BK25" s="37"/>
+      <c r="BL25" s="37"/>
+      <c r="BM25" s="37"/>
+      <c r="BN25" s="38"/>
       <c r="BO25" s="4"/>
       <c r="BP25" s="4"/>
-    </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ25" s="1"/>
+      <c r="BR25" s="1"/>
+      <c r="BS25" s="1"/>
+      <c r="BT25" s="1"/>
+    </row>
+    <row r="26" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>31</v>
@@ -2759,13 +2894,13 @@
       <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="12">
         <v>43569</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="12">
         <v>43575</v>
       </c>
-      <c r="F26" s="56">
+      <c r="F26" s="30">
         <v>8</v>
       </c>
       <c r="G26" s="1"/>
@@ -2813,39 +2948,43 @@
       <c r="AW26" s="4"/>
       <c r="AX26" s="4"/>
       <c r="AY26" s="4"/>
-      <c r="AZ26" s="70"/>
-      <c r="BA26" s="70"/>
-      <c r="BB26" s="70"/>
+      <c r="AZ26" s="44"/>
+      <c r="BA26" s="44"/>
+      <c r="BB26" s="44"/>
       <c r="BC26" s="4"/>
       <c r="BD26" s="4"/>
-      <c r="BE26" s="69"/>
-      <c r="BF26" s="69"/>
-      <c r="BG26" s="69"/>
-      <c r="BH26" s="69"/>
-      <c r="BI26" s="69"/>
+      <c r="BE26" s="43"/>
+      <c r="BF26" s="43"/>
+      <c r="BG26" s="43"/>
+      <c r="BH26" s="43"/>
+      <c r="BI26" s="43"/>
       <c r="BJ26" s="4"/>
       <c r="BK26" s="4"/>
       <c r="BL26" s="4"/>
       <c r="BM26" s="4"/>
-      <c r="BN26" s="65"/>
+      <c r="BN26" s="39"/>
       <c r="BO26" s="4"/>
       <c r="BP26" s="4"/>
-    </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ26" s="1"/>
+      <c r="BR26" s="1"/>
+      <c r="BS26" s="1"/>
+      <c r="BT26" s="1"/>
+    </row>
+    <row r="27" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="17">
+        <v>38</v>
+      </c>
+      <c r="D27" s="12">
         <v>43570</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="12">
         <v>43571</v>
       </c>
-      <c r="F27" s="56">
+      <c r="F27" s="30">
         <v>8</v>
       </c>
       <c r="G27" s="1"/>
@@ -2893,9 +3032,9 @@
       <c r="AW27" s="4"/>
       <c r="AX27" s="4"/>
       <c r="AY27" s="4"/>
-      <c r="AZ27" s="70"/>
-      <c r="BA27" s="70"/>
-      <c r="BB27" s="70"/>
+      <c r="AZ27" s="44"/>
+      <c r="BA27" s="44"/>
+      <c r="BB27" s="44"/>
       <c r="BC27" s="4"/>
       <c r="BD27" s="4"/>
       <c r="BE27" s="3"/>
@@ -2907,25 +3046,29 @@
       <c r="BK27" s="4"/>
       <c r="BL27" s="4"/>
       <c r="BM27" s="4"/>
-      <c r="BN27" s="65"/>
+      <c r="BN27" s="39"/>
       <c r="BO27" s="4"/>
       <c r="BP27" s="4"/>
-    </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ27" s="1"/>
+      <c r="BR27" s="1"/>
+      <c r="BS27" s="1"/>
+      <c r="BT27" s="1"/>
+    </row>
+    <row r="28" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="17">
+        <v>54</v>
+      </c>
+      <c r="D28" s="12">
         <v>43570</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="12">
         <v>43575</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="30">
         <v>32</v>
       </c>
       <c r="G28" s="1"/>
@@ -2973,36 +3116,40 @@
       <c r="AW28" s="4"/>
       <c r="AX28" s="4"/>
       <c r="AY28" s="4"/>
-      <c r="AZ28" s="70"/>
-      <c r="BA28" s="70"/>
-      <c r="BB28" s="70"/>
+      <c r="AZ28" s="44"/>
+      <c r="BA28" s="44"/>
+      <c r="BB28" s="44"/>
       <c r="BC28" s="4"/>
       <c r="BD28" s="4"/>
-      <c r="BE28" s="69"/>
-      <c r="BF28" s="69"/>
-      <c r="BG28" s="69"/>
-      <c r="BH28" s="69"/>
-      <c r="BI28" s="69"/>
+      <c r="BE28" s="43"/>
+      <c r="BF28" s="43"/>
+      <c r="BG28" s="43"/>
+      <c r="BH28" s="43"/>
+      <c r="BI28" s="43"/>
       <c r="BJ28" s="4"/>
       <c r="BK28" s="4"/>
       <c r="BL28" s="4"/>
       <c r="BM28" s="4"/>
-      <c r="BN28" s="65"/>
+      <c r="BN28" s="39"/>
       <c r="BO28" s="4"/>
       <c r="BP28" s="4"/>
-    </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ28" s="1"/>
+      <c r="BR28" s="1"/>
+      <c r="BS28" s="1"/>
+      <c r="BT28" s="1"/>
+    </row>
+    <row r="29" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="17">
+        <v>53</v>
+      </c>
+      <c r="D29" s="12">
         <v>43570</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="12">
         <v>43571</v>
       </c>
       <c r="F29" s="6">
@@ -3053,12 +3200,12 @@
       <c r="AW29" s="4"/>
       <c r="AX29" s="4"/>
       <c r="AY29" s="4"/>
-      <c r="AZ29" s="70"/>
-      <c r="BA29" s="71"/>
-      <c r="BB29" s="70"/>
+      <c r="AZ29" s="44"/>
+      <c r="BA29" s="45"/>
+      <c r="BB29" s="44"/>
       <c r="BC29" s="4"/>
       <c r="BD29" s="4"/>
-      <c r="BE29" s="33"/>
+      <c r="BE29" s="24"/>
       <c r="BF29" s="3"/>
       <c r="BG29" s="4"/>
       <c r="BH29" s="4"/>
@@ -3067,11 +3214,15 @@
       <c r="BK29" s="4"/>
       <c r="BL29" s="4"/>
       <c r="BM29" s="4"/>
-      <c r="BN29" s="65"/>
+      <c r="BN29" s="39"/>
       <c r="BO29" s="4"/>
       <c r="BP29" s="4"/>
-    </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ29" s="1"/>
+      <c r="BR29" s="1"/>
+      <c r="BS29" s="1"/>
+      <c r="BT29" s="1"/>
+    </row>
+    <row r="30" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>34</v>
@@ -3079,10 +3230,10 @@
       <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="12">
         <v>43571</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="12">
         <v>43571</v>
       </c>
       <c r="F30" s="6">
@@ -3133,13 +3284,13 @@
       <c r="AW30" s="4"/>
       <c r="AX30" s="4"/>
       <c r="AY30" s="4"/>
-      <c r="AZ30" s="70"/>
-      <c r="BA30" s="70"/>
-      <c r="BB30" s="70"/>
+      <c r="AZ30" s="44"/>
+      <c r="BA30" s="44"/>
+      <c r="BB30" s="44"/>
       <c r="BC30" s="4"/>
       <c r="BD30" s="4"/>
       <c r="BE30" s="4"/>
-      <c r="BF30" s="33"/>
+      <c r="BF30" s="24"/>
       <c r="BG30" s="4"/>
       <c r="BH30" s="4"/>
       <c r="BI30" s="4"/>
@@ -3147,11 +3298,15 @@
       <c r="BK30" s="4"/>
       <c r="BL30" s="4"/>
       <c r="BM30" s="4"/>
-      <c r="BN30" s="65"/>
+      <c r="BN30" s="39"/>
       <c r="BO30" s="4"/>
       <c r="BP30" s="4"/>
-    </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ30" s="1"/>
+      <c r="BR30" s="1"/>
+      <c r="BS30" s="1"/>
+      <c r="BT30" s="1"/>
+    </row>
+    <row r="31" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>35</v>
@@ -3159,10 +3314,10 @@
       <c r="C31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="12">
         <v>43571</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="12">
         <v>43572</v>
       </c>
       <c r="F31" s="6">
@@ -3213,9 +3368,9 @@
       <c r="AW31" s="4"/>
       <c r="AX31" s="4"/>
       <c r="AY31" s="4"/>
-      <c r="AZ31" s="70"/>
-      <c r="BA31" s="70"/>
-      <c r="BB31" s="72"/>
+      <c r="AZ31" s="44"/>
+      <c r="BA31" s="44"/>
+      <c r="BB31" s="46"/>
       <c r="BC31" s="4"/>
       <c r="BD31" s="4"/>
       <c r="BE31" s="4"/>
@@ -3227,11 +3382,15 @@
       <c r="BK31" s="4"/>
       <c r="BL31" s="4"/>
       <c r="BM31" s="4"/>
-      <c r="BN31" s="65"/>
+      <c r="BN31" s="39"/>
       <c r="BO31" s="4"/>
       <c r="BP31" s="4"/>
-    </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ31" s="1"/>
+      <c r="BR31" s="1"/>
+      <c r="BS31" s="1"/>
+      <c r="BT31" s="1"/>
+    </row>
+    <row r="32" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>36</v>
@@ -3239,10 +3398,10 @@
       <c r="C32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="12">
         <v>43572</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="12">
         <v>43572</v>
       </c>
       <c r="F32" s="6">
@@ -3293,9 +3452,9 @@
       <c r="AW32" s="4"/>
       <c r="AX32" s="4"/>
       <c r="AY32" s="4"/>
-      <c r="AZ32" s="70"/>
-      <c r="BA32" s="70"/>
-      <c r="BB32" s="70"/>
+      <c r="AZ32" s="44"/>
+      <c r="BA32" s="44"/>
+      <c r="BB32" s="44"/>
       <c r="BC32" s="4"/>
       <c r="BD32" s="4"/>
       <c r="BE32" s="4"/>
@@ -3307,11 +3466,15 @@
       <c r="BK32" s="4"/>
       <c r="BL32" s="4"/>
       <c r="BM32" s="4"/>
-      <c r="BN32" s="65"/>
+      <c r="BN32" s="39"/>
       <c r="BO32" s="4"/>
       <c r="BP32" s="4"/>
-    </row>
-    <row r="33" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ32" s="1"/>
+      <c r="BR32" s="1"/>
+      <c r="BS32" s="1"/>
+      <c r="BT32" s="1"/>
+    </row>
+    <row r="33" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>37</v>
@@ -3319,10 +3482,10 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="12">
         <v>43572</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="12">
         <v>43573</v>
       </c>
       <c r="F33" s="6">
@@ -3373,9 +3536,9 @@
       <c r="AW33" s="4"/>
       <c r="AX33" s="4"/>
       <c r="AY33" s="4"/>
-      <c r="AZ33" s="70"/>
-      <c r="BA33" s="70"/>
-      <c r="BB33" s="70"/>
+      <c r="AZ33" s="44"/>
+      <c r="BA33" s="44"/>
+      <c r="BB33" s="44"/>
       <c r="BC33" s="4"/>
       <c r="BD33" s="4"/>
       <c r="BE33" s="4"/>
@@ -3387,25 +3550,29 @@
       <c r="BK33" s="4"/>
       <c r="BL33" s="4"/>
       <c r="BM33" s="4"/>
-      <c r="BN33" s="65"/>
+      <c r="BN33" s="39"/>
       <c r="BO33" s="4"/>
       <c r="BP33" s="4"/>
-    </row>
-    <row r="34" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ33" s="1"/>
+      <c r="BR33" s="1"/>
+      <c r="BS33" s="1"/>
+      <c r="BT33" s="1"/>
+    </row>
+    <row r="34" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="17">
+        <v>74</v>
+      </c>
+      <c r="D34" s="12">
         <v>43574</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="12">
         <v>43575</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="21">
         <v>4</v>
       </c>
       <c r="G34" s="1"/>
@@ -3453,9 +3620,9 @@
       <c r="AW34" s="4"/>
       <c r="AX34" s="4"/>
       <c r="AY34" s="4"/>
-      <c r="AZ34" s="70"/>
-      <c r="BA34" s="70"/>
-      <c r="BB34" s="70"/>
+      <c r="AZ34" s="44"/>
+      <c r="BA34" s="44"/>
+      <c r="BB34" s="44"/>
       <c r="BC34" s="4"/>
       <c r="BD34" s="4"/>
       <c r="BE34" s="4"/>
@@ -3467,20 +3634,28 @@
       <c r="BK34" s="4"/>
       <c r="BL34" s="4"/>
       <c r="BM34" s="4"/>
-      <c r="BN34" s="65"/>
+      <c r="BN34" s="39"/>
       <c r="BO34" s="4"/>
       <c r="BP34" s="4"/>
-    </row>
-    <row r="35" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ34" s="1"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="1"/>
+      <c r="BT34" s="1"/>
+    </row>
+    <row r="35" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
+        <v>44</v>
+      </c>
+      <c r="D35" s="12">
+        <v>43569</v>
+      </c>
+      <c r="E35" s="12">
+        <v>43570</v>
+      </c>
       <c r="F35" s="30">
         <v>8</v>
       </c>
@@ -3517,51 +3692,55 @@
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
       <c r="AM35" s="1"/>
-      <c r="AN35" s="1"/>
-      <c r="AO35" s="1"/>
-      <c r="AP35" s="1"/>
-      <c r="AQ35" s="1"/>
-      <c r="AR35" s="1"/>
-      <c r="AS35" s="1"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
+      <c r="AQ35" s="5"/>
+      <c r="AR35" s="5"/>
+      <c r="AS35" s="5"/>
       <c r="AT35" s="4"/>
       <c r="AU35" s="4"/>
       <c r="AV35" s="4"/>
       <c r="AW35" s="4"/>
       <c r="AX35" s="4"/>
       <c r="AY35" s="4"/>
-      <c r="AZ35" s="70"/>
-      <c r="BA35" s="70"/>
-      <c r="BB35" s="70"/>
+      <c r="AZ35" s="44"/>
+      <c r="BA35" s="44"/>
+      <c r="BB35" s="44"/>
       <c r="BC35" s="4"/>
       <c r="BD35" s="4"/>
-      <c r="BE35" s="4"/>
+      <c r="BE35" s="3"/>
       <c r="BF35" s="4"/>
       <c r="BG35" s="4"/>
       <c r="BH35" s="4"/>
-      <c r="BI35" s="3"/>
+      <c r="BI35" s="4"/>
       <c r="BJ35" s="4"/>
       <c r="BK35" s="4"/>
       <c r="BL35" s="4"/>
       <c r="BM35" s="4"/>
-      <c r="BN35" s="65"/>
+      <c r="BN35" s="39"/>
       <c r="BO35" s="4"/>
       <c r="BP35" s="4"/>
-    </row>
-    <row r="36" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ35" s="1"/>
+      <c r="BR35" s="1"/>
+      <c r="BS35" s="1"/>
+      <c r="BT35" s="1"/>
+    </row>
+    <row r="36" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="17">
-        <v>43569</v>
-      </c>
-      <c r="E36" s="17">
+        <v>44</v>
+      </c>
+      <c r="D36" s="12">
         <v>43570</v>
       </c>
-      <c r="F36" s="56">
+      <c r="E36" s="12">
+        <v>43571</v>
+      </c>
+      <c r="F36" s="30">
         <v>8</v>
       </c>
       <c r="G36" s="1"/>
@@ -3609,13 +3788,13 @@
       <c r="AW36" s="4"/>
       <c r="AX36" s="4"/>
       <c r="AY36" s="4"/>
-      <c r="AZ36" s="70"/>
-      <c r="BA36" s="70"/>
-      <c r="BB36" s="70"/>
+      <c r="AZ36" s="44"/>
+      <c r="BA36" s="44"/>
+      <c r="BB36" s="44"/>
       <c r="BC36" s="4"/>
       <c r="BD36" s="4"/>
       <c r="BE36" s="3"/>
-      <c r="BF36" s="4"/>
+      <c r="BF36" s="3"/>
       <c r="BG36" s="4"/>
       <c r="BH36" s="4"/>
       <c r="BI36" s="4"/>
@@ -3623,26 +3802,30 @@
       <c r="BK36" s="4"/>
       <c r="BL36" s="4"/>
       <c r="BM36" s="4"/>
-      <c r="BN36" s="65"/>
+      <c r="BN36" s="39"/>
       <c r="BO36" s="4"/>
       <c r="BP36" s="4"/>
-    </row>
-    <row r="37" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ36" s="1"/>
+      <c r="BR36" s="1"/>
+      <c r="BS36" s="1"/>
+      <c r="BT36" s="1"/>
+    </row>
+    <row r="37" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="17">
-        <v>43570</v>
-      </c>
-      <c r="E37" s="17">
-        <v>43571</v>
-      </c>
-      <c r="F37" s="56">
-        <v>8</v>
+        <v>72</v>
+      </c>
+      <c r="D37" s="12">
+        <v>43572</v>
+      </c>
+      <c r="E37" s="12">
+        <v>43575</v>
+      </c>
+      <c r="F37" s="30">
+        <v>16</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -3689,40 +3872,44 @@
       <c r="AW37" s="4"/>
       <c r="AX37" s="4"/>
       <c r="AY37" s="4"/>
-      <c r="AZ37" s="70"/>
-      <c r="BA37" s="70"/>
-      <c r="BB37" s="70"/>
+      <c r="AZ37" s="44"/>
+      <c r="BA37" s="44"/>
+      <c r="BB37" s="44"/>
       <c r="BC37" s="4"/>
       <c r="BD37" s="4"/>
-      <c r="BE37" s="3"/>
-      <c r="BF37" s="3"/>
-      <c r="BG37" s="4"/>
-      <c r="BH37" s="4"/>
-      <c r="BI37" s="4"/>
+      <c r="BE37" s="4"/>
+      <c r="BF37" s="4"/>
+      <c r="BG37" s="43"/>
+      <c r="BH37" s="43"/>
+      <c r="BI37" s="43"/>
       <c r="BJ37" s="4"/>
       <c r="BK37" s="4"/>
       <c r="BL37" s="4"/>
       <c r="BM37" s="4"/>
-      <c r="BN37" s="65"/>
+      <c r="BN37" s="39"/>
       <c r="BO37" s="4"/>
       <c r="BP37" s="4"/>
-    </row>
-    <row r="38" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ37" s="1"/>
+      <c r="BR37" s="1"/>
+      <c r="BS37" s="1"/>
+      <c r="BT37" s="1"/>
+    </row>
+    <row r="38" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="17">
+        <v>71</v>
+      </c>
+      <c r="D38" s="12">
         <v>43572</v>
       </c>
-      <c r="E38" s="17">
-        <v>43575</v>
-      </c>
-      <c r="F38" s="56">
-        <v>16</v>
+      <c r="E38" s="12">
+        <v>43574</v>
+      </c>
+      <c r="F38" s="6">
+        <v>8</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -3769,37 +3956,41 @@
       <c r="AW38" s="4"/>
       <c r="AX38" s="4"/>
       <c r="AY38" s="4"/>
-      <c r="AZ38" s="70"/>
-      <c r="BA38" s="70"/>
-      <c r="BB38" s="70"/>
+      <c r="AZ38" s="44"/>
+      <c r="BA38" s="44"/>
+      <c r="BB38" s="44"/>
       <c r="BC38" s="4"/>
       <c r="BD38" s="4"/>
       <c r="BE38" s="4"/>
       <c r="BF38" s="4"/>
-      <c r="BG38" s="69"/>
-      <c r="BH38" s="69"/>
-      <c r="BI38" s="69"/>
+      <c r="BG38" s="3"/>
+      <c r="BH38" s="3"/>
+      <c r="BI38" s="4"/>
       <c r="BJ38" s="4"/>
       <c r="BK38" s="4"/>
       <c r="BL38" s="4"/>
       <c r="BM38" s="4"/>
-      <c r="BN38" s="65"/>
+      <c r="BN38" s="39"/>
       <c r="BO38" s="4"/>
       <c r="BP38" s="4"/>
-    </row>
-    <row r="39" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ38" s="1"/>
+      <c r="BR38" s="1"/>
+      <c r="BS38" s="1"/>
+      <c r="BT38" s="1"/>
+    </row>
+    <row r="39" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="17">
-        <v>43572</v>
-      </c>
-      <c r="E39" s="17">
+        <v>38</v>
+      </c>
+      <c r="D39" s="12">
         <v>43574</v>
+      </c>
+      <c r="E39" s="12">
+        <v>43575</v>
       </c>
       <c r="F39" s="6">
         <v>8</v>
@@ -3849,189 +4040,209 @@
       <c r="AW39" s="4"/>
       <c r="AX39" s="4"/>
       <c r="AY39" s="4"/>
-      <c r="AZ39" s="70"/>
-      <c r="BA39" s="70"/>
-      <c r="BB39" s="70"/>
+      <c r="AZ39" s="44"/>
+      <c r="BA39" s="44"/>
+      <c r="BB39" s="44"/>
       <c r="BC39" s="4"/>
       <c r="BD39" s="4"/>
       <c r="BE39" s="4"/>
       <c r="BF39" s="4"/>
-      <c r="BG39" s="3"/>
+      <c r="BG39" s="4"/>
       <c r="BH39" s="3"/>
-      <c r="BI39" s="4"/>
+      <c r="BI39" s="3"/>
       <c r="BJ39" s="4"/>
       <c r="BK39" s="4"/>
       <c r="BL39" s="4"/>
-      <c r="BM39" s="4"/>
-      <c r="BN39" s="65"/>
+      <c r="BM39" s="40"/>
+      <c r="BN39" s="41"/>
       <c r="BO39" s="4"/>
       <c r="BP39" s="4"/>
-    </row>
-    <row r="40" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="17">
-        <v>43574</v>
-      </c>
-      <c r="E40" s="17">
-        <v>43575</v>
-      </c>
-      <c r="F40" s="6">
-        <v>8</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
-      <c r="AE40" s="1"/>
-      <c r="AF40" s="1"/>
-      <c r="AG40" s="1"/>
-      <c r="AH40" s="1"/>
-      <c r="AI40" s="1"/>
-      <c r="AJ40" s="1"/>
-      <c r="AK40" s="1"/>
-      <c r="AL40" s="1"/>
-      <c r="AM40" s="1"/>
-      <c r="AN40" s="5"/>
-      <c r="AO40" s="5"/>
-      <c r="AP40" s="5"/>
-      <c r="AQ40" s="5"/>
-      <c r="AR40" s="5"/>
-      <c r="AS40" s="5"/>
-      <c r="AT40" s="4"/>
-      <c r="AU40" s="4"/>
-      <c r="AV40" s="4"/>
-      <c r="AW40" s="4"/>
-      <c r="AX40" s="4"/>
-      <c r="AY40" s="4"/>
-      <c r="AZ40" s="70"/>
-      <c r="BA40" s="70"/>
-      <c r="BB40" s="70"/>
-      <c r="BC40" s="4"/>
-      <c r="BD40" s="4"/>
-      <c r="BE40" s="4"/>
-      <c r="BF40" s="4"/>
-      <c r="BG40" s="4"/>
-      <c r="BH40" s="3"/>
-      <c r="BI40" s="3"/>
-      <c r="BJ40" s="4"/>
-      <c r="BK40" s="4"/>
-      <c r="BL40" s="4"/>
-      <c r="BM40" s="66"/>
-      <c r="BN40" s="67"/>
-      <c r="BO40" s="4"/>
-      <c r="BP40" s="4"/>
-    </row>
-    <row r="41" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A41" s="30">
+      <c r="BQ39" s="1"/>
+      <c r="BR39" s="1"/>
+      <c r="BS39" s="1"/>
+      <c r="BT39" s="1"/>
+    </row>
+    <row r="40" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A40" s="21">
         <v>4</v>
       </c>
-      <c r="B41" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="58"/>
-      <c r="P41" s="58"/>
-      <c r="Q41" s="58"/>
-      <c r="R41" s="58"/>
-      <c r="S41" s="58"/>
-      <c r="T41" s="58"/>
-      <c r="U41" s="58"/>
-      <c r="V41" s="58"/>
-      <c r="W41" s="58"/>
-      <c r="X41" s="58"/>
-      <c r="Y41" s="58"/>
-      <c r="Z41" s="58"/>
-      <c r="AA41" s="58"/>
-      <c r="AB41" s="58"/>
-      <c r="AC41" s="58"/>
-      <c r="AD41" s="58"/>
-      <c r="AE41" s="58"/>
-      <c r="AF41" s="58"/>
-      <c r="AG41" s="58"/>
-      <c r="AH41" s="58"/>
-      <c r="AI41" s="58"/>
-      <c r="AJ41" s="58"/>
-      <c r="AK41" s="58"/>
-      <c r="AL41" s="58"/>
-      <c r="AM41" s="58"/>
-      <c r="AN41" s="58"/>
-      <c r="AO41" s="58"/>
-      <c r="AP41" s="58"/>
-      <c r="AQ41" s="58"/>
-      <c r="AR41" s="58"/>
-      <c r="AS41" s="58"/>
-      <c r="AT41" s="58"/>
-      <c r="AU41" s="58"/>
-      <c r="AV41" s="58"/>
-      <c r="AW41" s="58"/>
-      <c r="AX41" s="58"/>
-      <c r="AY41" s="58"/>
-      <c r="AZ41" s="58"/>
-      <c r="BA41" s="58"/>
-      <c r="BB41" s="58"/>
-      <c r="BC41" s="58"/>
-      <c r="BD41" s="58"/>
-      <c r="BE41" s="58"/>
-      <c r="BF41" s="58"/>
-      <c r="BG41" s="58"/>
-      <c r="BH41" s="58"/>
-      <c r="BI41" s="58"/>
-      <c r="BJ41" s="58"/>
-      <c r="BK41" s="58"/>
-      <c r="BL41" s="61"/>
-      <c r="BM41" s="58"/>
-      <c r="BN41" s="61"/>
-      <c r="BO41" s="58"/>
-      <c r="BP41" s="58"/>
-    </row>
-    <row r="42" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
+      <c r="B40" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="34">
+        <v>51</v>
+      </c>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="32"/>
+      <c r="Z40" s="32"/>
+      <c r="AA40" s="32"/>
+      <c r="AB40" s="32"/>
+      <c r="AC40" s="32"/>
+      <c r="AD40" s="32"/>
+      <c r="AE40" s="32"/>
+      <c r="AF40" s="32"/>
+      <c r="AG40" s="32"/>
+      <c r="AH40" s="32"/>
+      <c r="AI40" s="32"/>
+      <c r="AJ40" s="32"/>
+      <c r="AK40" s="32"/>
+      <c r="AL40" s="32"/>
+      <c r="AM40" s="32"/>
+      <c r="AN40" s="32"/>
+      <c r="AO40" s="32"/>
+      <c r="AP40" s="32"/>
+      <c r="AQ40" s="32"/>
+      <c r="AR40" s="32"/>
+      <c r="AS40" s="32"/>
+      <c r="AT40" s="32"/>
+      <c r="AU40" s="32"/>
+      <c r="AV40" s="32"/>
+      <c r="AW40" s="32"/>
+      <c r="AX40" s="32"/>
+      <c r="AY40" s="32"/>
+      <c r="AZ40" s="32"/>
+      <c r="BA40" s="32"/>
+      <c r="BB40" s="32"/>
+      <c r="BC40" s="32"/>
+      <c r="BD40" s="32"/>
+      <c r="BE40" s="32"/>
+      <c r="BF40" s="32"/>
+      <c r="BG40" s="32"/>
+      <c r="BH40" s="32"/>
+      <c r="BI40" s="32"/>
+      <c r="BJ40" s="32"/>
+      <c r="BK40" s="32"/>
+      <c r="BL40" s="35"/>
+      <c r="BM40" s="32"/>
+      <c r="BN40" s="35"/>
+      <c r="BO40" s="32"/>
+      <c r="BP40" s="32"/>
+      <c r="BQ40" s="1"/>
+      <c r="BR40" s="1"/>
+      <c r="BS40" s="1"/>
+      <c r="BT40" s="1"/>
+    </row>
+    <row r="41" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="12">
+        <v>43579</v>
+      </c>
+      <c r="E41" s="12">
+        <v>43589</v>
+      </c>
+      <c r="F41" s="22">
+        <v>16</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="5"/>
+      <c r="AR41" s="5"/>
+      <c r="AS41" s="5"/>
+      <c r="AT41" s="5"/>
+      <c r="AU41" s="5"/>
+      <c r="AV41" s="5"/>
+      <c r="AW41" s="5"/>
+      <c r="AX41" s="5"/>
+      <c r="AY41" s="5"/>
+      <c r="AZ41" s="5"/>
+      <c r="BA41" s="5"/>
+      <c r="BB41" s="5"/>
+      <c r="BC41" s="5"/>
+      <c r="BD41" s="5"/>
+      <c r="BE41" s="5"/>
+      <c r="BF41" s="5"/>
+      <c r="BG41" s="5"/>
+      <c r="BH41" s="5"/>
+      <c r="BI41" s="5"/>
+      <c r="BJ41" s="5"/>
+      <c r="BK41" s="5"/>
+      <c r="BL41" s="76"/>
+      <c r="BM41" s="20"/>
+      <c r="BN41" s="77"/>
+      <c r="BO41" s="3"/>
+      <c r="BP41" s="3"/>
+      <c r="BQ41" s="3"/>
+      <c r="BR41" s="3"/>
+      <c r="BS41" s="3"/>
+      <c r="BT41" s="3"/>
+    </row>
+    <row r="42" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="31"/>
+        <v>66</v>
+      </c>
+      <c r="D42" s="12">
+        <v>43579</v>
+      </c>
+      <c r="E42" s="12">
+        <v>43589</v>
+      </c>
+      <c r="F42" s="22">
+        <v>16</v>
+      </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -4089,56 +4300,66 @@
       <c r="BI42" s="5"/>
       <c r="BJ42" s="5"/>
       <c r="BK42" s="5"/>
-      <c r="BL42" s="32"/>
-      <c r="BM42" s="34"/>
-      <c r="BN42" s="64"/>
-      <c r="BO42" s="4"/>
-      <c r="BP42" s="1"/>
-    </row>
-    <row r="43" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="4" t="s">
-        <v>38</v>
+      <c r="BL42" s="76"/>
+      <c r="BM42" s="20"/>
+      <c r="BN42" s="77"/>
+      <c r="BO42" s="3"/>
+      <c r="BP42" s="3"/>
+      <c r="BQ42" s="3"/>
+      <c r="BR42" s="3"/>
+      <c r="BS42" s="3"/>
+      <c r="BT42" s="3"/>
+    </row>
+    <row r="43" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
-      <c r="AE43" s="1"/>
-      <c r="AF43" s="1"/>
-      <c r="AG43" s="1"/>
-      <c r="AH43" s="1"/>
-      <c r="AI43" s="1"/>
-      <c r="AJ43" s="1"/>
-      <c r="AK43" s="1"/>
-      <c r="AL43" s="1"/>
-      <c r="AM43" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="D43" s="12">
+        <v>43582</v>
+      </c>
+      <c r="E43" s="12">
+        <v>43583</v>
+      </c>
+      <c r="F43" s="22">
+        <v>6</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+      <c r="AM43" s="5"/>
       <c r="AN43" s="5"/>
       <c r="AO43" s="5"/>
       <c r="AP43" s="5"/>
@@ -4146,78 +4367,252 @@
       <c r="AR43" s="5"/>
       <c r="AS43" s="5"/>
       <c r="AT43" s="5"/>
-      <c r="AU43" s="1"/>
-      <c r="AV43" s="1"/>
-      <c r="AW43" s="1"/>
-      <c r="AX43" s="1"/>
-      <c r="AY43" s="1"/>
-      <c r="AZ43" s="1"/>
-      <c r="BA43" s="1"/>
-      <c r="BB43" s="1"/>
-      <c r="BC43" s="1"/>
-      <c r="BD43" s="1"/>
-      <c r="BE43" s="1"/>
-      <c r="BF43" s="1"/>
-      <c r="BG43" s="1"/>
-      <c r="BH43" s="1"/>
-      <c r="BI43" s="1"/>
-      <c r="BJ43" s="1"/>
-      <c r="BK43" s="1"/>
-      <c r="BL43" s="1"/>
-      <c r="BM43" s="23"/>
-      <c r="BN43" s="64"/>
-      <c r="BO43" s="4"/>
+      <c r="AU43" s="5"/>
+      <c r="AV43" s="5"/>
+      <c r="AW43" s="5"/>
+      <c r="AX43" s="5"/>
+      <c r="AY43" s="5"/>
+      <c r="AZ43" s="5"/>
+      <c r="BA43" s="5"/>
+      <c r="BB43" s="5"/>
+      <c r="BC43" s="5"/>
+      <c r="BD43" s="5"/>
+      <c r="BE43" s="5"/>
+      <c r="BF43" s="5"/>
+      <c r="BG43" s="5"/>
+      <c r="BH43" s="5"/>
+      <c r="BI43" s="5"/>
+      <c r="BJ43" s="5"/>
+      <c r="BK43" s="5"/>
+      <c r="BL43" s="23"/>
+      <c r="BM43" s="25"/>
+      <c r="BN43" s="38"/>
+      <c r="BO43" s="3"/>
       <c r="BP43" s="1"/>
-    </row>
-    <row r="44" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="AN44" s="22"/>
-      <c r="AO44" s="22"/>
-      <c r="AP44" s="22"/>
-      <c r="AQ44" s="22"/>
-      <c r="AR44" s="22"/>
-      <c r="AS44" s="22"/>
-      <c r="AT44" s="22"/>
-    </row>
-    <row r="47" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="E48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="BQ43" s="1"/>
+      <c r="BR43" s="1"/>
+      <c r="BS43" s="1"/>
+      <c r="BT43" s="1"/>
+    </row>
+    <row r="44" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="12">
+        <v>43583</v>
+      </c>
+      <c r="E44" s="12">
+        <v>43584</v>
+      </c>
+      <c r="F44" s="22">
+        <v>7</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="5"/>
+      <c r="AS44" s="5"/>
+      <c r="AT44" s="5"/>
+      <c r="AU44" s="5"/>
+      <c r="AV44" s="5"/>
+      <c r="AW44" s="5"/>
+      <c r="AX44" s="5"/>
+      <c r="AY44" s="5"/>
+      <c r="AZ44" s="5"/>
+      <c r="BA44" s="5"/>
+      <c r="BB44" s="5"/>
+      <c r="BC44" s="5"/>
+      <c r="BD44" s="5"/>
+      <c r="BE44" s="5"/>
+      <c r="BF44" s="5"/>
+      <c r="BG44" s="5"/>
+      <c r="BH44" s="5"/>
+      <c r="BI44" s="5"/>
+      <c r="BJ44" s="5"/>
+      <c r="BK44" s="5"/>
+      <c r="BL44" s="23"/>
+      <c r="BM44" s="25"/>
+      <c r="BN44" s="38"/>
+      <c r="BO44" s="3"/>
+      <c r="BP44" s="3"/>
+      <c r="BQ44" s="1"/>
+      <c r="BR44" s="1"/>
+      <c r="BS44" s="1"/>
+      <c r="BT44" s="1"/>
+    </row>
+    <row r="45" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="12">
+        <v>43584</v>
+      </c>
+      <c r="E45" s="12">
+        <v>43585</v>
+      </c>
+      <c r="F45" s="6">
+        <v>6</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="5"/>
+      <c r="AO45" s="5"/>
+      <c r="AP45" s="5"/>
+      <c r="AQ45" s="5"/>
+      <c r="AR45" s="5"/>
+      <c r="AS45" s="5"/>
+      <c r="AT45" s="5"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="1"/>
+      <c r="BE45" s="1"/>
+      <c r="BF45" s="1"/>
+      <c r="BG45" s="1"/>
+      <c r="BH45" s="1"/>
+      <c r="BI45" s="1"/>
+      <c r="BJ45" s="1"/>
+      <c r="BK45" s="1"/>
+      <c r="BL45" s="1"/>
+      <c r="BM45" s="18"/>
+      <c r="BN45" s="38"/>
+      <c r="BO45" s="4"/>
+      <c r="BP45" s="3"/>
+      <c r="BQ45" s="1"/>
+      <c r="BR45" s="1"/>
+      <c r="BS45" s="1"/>
+      <c r="BT45" s="1"/>
+    </row>
+    <row r="46" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="AN46" s="17"/>
+      <c r="AO46" s="17"/>
+      <c r="AP46" s="17"/>
+      <c r="AQ46" s="17"/>
+      <c r="AR46" s="17"/>
+      <c r="AS46" s="17"/>
+      <c r="AT46" s="17"/>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
       <c r="E49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
-        <v>57</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="25">
+    <mergeCell ref="BQ7:BT7"/>
+    <mergeCell ref="BQ6:BT6"/>
     <mergeCell ref="AU6:BP6"/>
     <mergeCell ref="BO7:BP7"/>
     <mergeCell ref="A6:A8"/>
